--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_26.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_26.xlsx
@@ -1181,10 +1181,10 @@
         <v>1398800851.3300049</v>
       </c>
       <c r="E12" s="1">
-        <v>1361974148</v>
+        <v>1361974149.3</v>
       </c>
       <c r="F12" s="1">
-        <v>1305498328.7699957</v>
+        <v>1305498329</v>
       </c>
       <c r="G12" s="1">
         <v>1240524717.0500007</v>
@@ -1217,10 +1217,10 @@
         <v>338965688.90999979</v>
       </c>
       <c r="E13" s="1">
-        <v>332114255.60000002</v>
+        <v>332114255.61000007</v>
       </c>
       <c r="F13" s="1">
-        <v>325268233.58999997</v>
+        <v>325268233.60000002</v>
       </c>
       <c r="G13" s="1">
         <v>319819483.18000001</v>
@@ -1253,7 +1253,7 @@
         <v>-45752811.059999987</v>
       </c>
       <c r="E14" s="1">
-        <v>537985.22</v>
+        <v>537985.22000000253</v>
       </c>
       <c r="F14" s="1">
         <v>44875817.619999997</v>
@@ -1328,7 +1328,7 @@
         <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
-        <v>-53616441.74000001</v>
+        <v>53616441.740000002</v>
       </c>
       <c r="G16" s="1">
         <v>-60834434.380000003</v>
@@ -1399,11 +1399,12 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>1447134856</v>
+        <f>SUM(E12:E17)</f>
+        <v>1447134855.7700002</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
-        <v>1451068426.2899954</v>
+        <v>1558301310.0099998</v>
       </c>
       <c r="G18" s="1">
         <f>SUM(G12:G17)</f>
@@ -1439,10 +1440,10 @@
         <v>-383099999.99999988</v>
       </c>
       <c r="E19" s="1">
-        <v>-384700000</v>
+        <v>-384700000.00000012</v>
       </c>
       <c r="F19" s="1">
-        <v>-412700000</v>
+        <v>412700000</v>
       </c>
       <c r="G19" s="1">
         <v>-379300000.00000012</v>
@@ -1513,11 +1514,12 @@
         <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
-        <v>1062434856</v>
+        <f>SUM(E18:E20)</f>
+        <v>1062434855.7700001</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
-        <v>1038368426.2899954</v>
+        <v>1971001310.0099998</v>
       </c>
       <c r="G21" s="33">
         <f>SUM(G18:G20)</f>
@@ -1556,7 +1558,7 @@
         <v>-20015625</v>
       </c>
       <c r="F22" s="32">
-        <v>-20015625</v>
+        <v>20015625</v>
       </c>
       <c r="G22" s="32">
         <v>-20015625</v>
@@ -1592,11 +1594,11 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>1042419231</v>
+        <v>1042419230.7700001</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
-        <v>1018352801.2899954</v>
+        <v>1991016935.0099998</v>
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
@@ -1640,11 +1642,11 @@
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>1.0233708165497497</v>
+        <v>1.0233708163259172</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
-        <v>0.9918665374628679</v>
+        <v>1.9392327213021794</v>
       </c>
       <c r="G25" s="5">
         <f>G23/G26</f>
@@ -1678,10 +1680,10 @@
         <v>1009991810.1331247</v>
       </c>
       <c r="E26" s="1">
-        <v>1018613404</v>
+        <v>1018613403.9980445</v>
       </c>
       <c r="F26" s="1">
-        <v>1026703455.3810816</v>
+        <v>1026703455</v>
       </c>
       <c r="G26" s="1">
         <v>1029174575.116062</v>
@@ -1731,15 +1733,15 @@
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>-2.9235747302553738E-2</v>
+        <v>-2.9235747514880096E-2</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-3.0784812872715204E-2</v>
+        <v>0.89494627984836317</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>-4.8836142859029819E-2</v>
+        <v>-0.51350470153539085</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816897109568</v>
+        <v>1.2094549264340526</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
